--- a/testData/Copy of Opencart_LoginData.xlsx
+++ b/testData/Copy of Opencart_LoginData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jyothi\eclipse-workspace\openCart_Cucumber\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jyothi\eclipse-workspace\eCommerceApp_Cucumber_Project\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3674EA-F98F-41F0-BA84-F197E2E75DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2696EE3A-F6B0-4DFA-A2E3-A1F3D027984A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>username</t>
   </si>
@@ -81,7 +81,10 @@
     <t>Sophie123</t>
   </si>
   <si>
-    <t>invalid</t>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>inValid</t>
   </si>
 </sst>
 </file>
@@ -570,7 +573,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
